--- a/assets/files/product-registration/import-product/productMst_format.xlsx
+++ b/assets/files/product-registration/import-product/productMst_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamagishitakuya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80A62F-60FA-074C-8D12-E8E4B9DB16D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5306D9-49B4-5042-84D6-7BC2FC96FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="5440" windowWidth="28300" windowHeight="17360" xr2:uid="{752AEAEA-5AB9-5D49-B29F-722112EFB092}"/>
+    <workbookView xWindow="6540" yWindow="4500" windowWidth="28300" windowHeight="17360" xr2:uid="{752AEAEA-5AB9-5D49-B29F-722112EFB092}"/>
   </bookViews>
   <sheets>
     <sheet name="製品マスタ_20250812120225" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>製品管理コード</t>
   </si>
@@ -34,30 +34,6 @@
     <t>物件略称</t>
   </si>
   <si>
-    <t>部位コード１</t>
-  </si>
-  <si>
-    <t>部位名称１</t>
-  </si>
-  <si>
-    <t>部位コード２</t>
-  </si>
-  <si>
-    <t>部位名称２</t>
-  </si>
-  <si>
-    <t>部位コード３</t>
-  </si>
-  <si>
-    <t>部位名称３</t>
-  </si>
-  <si>
-    <t>部位コード４</t>
-  </si>
-  <si>
-    <t>部位名称４</t>
-  </si>
-  <si>
     <t>製品番号</t>
   </si>
   <si>
@@ -85,40 +61,109 @@
     <t>写真撮影</t>
   </si>
   <si>
-    <t>コンクリート種別</t>
-  </si>
-  <si>
     <t>立米１</t>
   </si>
   <si>
-    <t>配合１</t>
+    <t>外注鉄筋業者名称</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>部位コード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部位名称</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コメント１</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合１</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合No２</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合No１</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>立米２</t>
-  </si>
-  <si>
-    <t>配合２</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合２</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>外注鉄筋業者コード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コメント２</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>立米３</t>
-  </si>
-  <si>
-    <t>配合３</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合３</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合No３</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コメント３</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>立米４</t>
-  </si>
-  <si>
-    <t>配合４</t>
-  </si>
-  <si>
-    <t>外注鉄筋業者コード</t>
-  </si>
-  <si>
-    <t>外注鉄筋業者名称</t>
-  </si>
-  <si>
-    <t>ステータス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合４</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>調合No４</t>
+    <rPh sb="0" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コメント４</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1126,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6910DA2F-E2EA-FC47-9F15-6DD057636882}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,27 +1183,31 @@
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1">
+    <row r="1" spans="1:34" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1172,94 +1221,97 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="W1" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="AG1" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1272,13 +1324,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1293,8 +1345,9 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1328,8 +1381,9 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1363,8 +1417,9 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1398,8 +1453,9 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1433,8 +1489,9 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1468,8 +1525,9 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1503,8 +1561,9 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1538,8 +1597,9 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1573,6 +1633,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
